--- a/Scripts/Simbologia.xlsx
+++ b/Scripts/Simbologia.xlsx
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="243">
-  <si>
-    <t>Volcán</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="246">
   <si>
     <t>Color</t>
   </si>
@@ -309,9 +306,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>lime</t>
-  </si>
-  <si>
     <t>deeppink</t>
   </si>
   <si>
@@ -324,9 +318,6 @@
     <t>gold</t>
   </si>
   <si>
-    <t>coral</t>
-  </si>
-  <si>
     <t>turquoise</t>
   </si>
   <si>
@@ -339,9 +330,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>sandybrown</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
@@ -438,15 +426,9 @@
     <t>lightskyblue</t>
   </si>
   <si>
-    <t>plum</t>
-  </si>
-  <si>
     <t>teal</t>
   </si>
   <si>
-    <t>khaki</t>
-  </si>
-  <si>
     <t>slateblue</t>
   </si>
   <si>
@@ -486,9 +468,6 @@
     <t>H1</t>
   </si>
   <si>
-    <t>indigo</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -525,9 +504,6 @@
     <t>Neltume</t>
   </si>
   <si>
-    <t>Antillanca - Casablanca</t>
-  </si>
-  <si>
     <t>1994 Llaima</t>
   </si>
   <si>
@@ -543,9 +519,6 @@
     <t>Yelcho</t>
   </si>
   <si>
-    <t>Puyehue</t>
-  </si>
-  <si>
     <t>Villarrica 1984</t>
   </si>
   <si>
@@ -615,9 +588,6 @@
     <t>MB1910</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>HW2</t>
   </si>
   <si>
@@ -693,9 +663,6 @@
     <t>Cay</t>
   </si>
   <si>
-    <t>darkseagreen</t>
-  </si>
-  <si>
     <t>Hudson1971</t>
   </si>
   <si>
@@ -748,6 +715,48 @@
   </si>
   <si>
     <t>MAC1</t>
+  </si>
+  <si>
+    <t>Osorno1835</t>
+  </si>
+  <si>
+    <t>Cono Appel</t>
+  </si>
+  <si>
+    <t>Cono Los Pumas</t>
+  </si>
+  <si>
+    <t>Antillanca-Casablanca</t>
+  </si>
+  <si>
+    <t>North Cordón Caulle</t>
+  </si>
+  <si>
+    <t>xkcd:lemon lime</t>
+  </si>
+  <si>
+    <t>xkcd:seafoam</t>
+  </si>
+  <si>
+    <t>xkcd:blood orange</t>
+  </si>
+  <si>
+    <t>xkcd:red pink</t>
+  </si>
+  <si>
+    <t>xkcd:shamrock</t>
+  </si>
+  <si>
+    <t>xkcd:vibrant purple</t>
+  </si>
+  <si>
+    <t>xkcd:saffron</t>
+  </si>
+  <si>
+    <t>xkcd:spruce</t>
+  </si>
+  <si>
+    <t>Volcan</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,9 +1104,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,1661 +1502,1659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="22"/>
+    <col min="5" max="5" width="11.5546875" style="22"/>
+    <col min="7" max="16384" width="11.5546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:4" s="19" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="20" customFormat="1">
+      <c r="A4" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="19" customFormat="1">
-      <c r="A2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="20" customFormat="1">
-      <c r="A4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1">
+      <c r="A5" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="20" customFormat="1">
+      <c r="A6" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="20" customFormat="1">
+      <c r="A7" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C7" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="20" customFormat="1">
-      <c r="A5" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="20" customFormat="1">
-      <c r="A6" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="20" customFormat="1">
-      <c r="A7" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="38" t="s">
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="19" customFormat="1">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="B9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="19" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="20" customFormat="1">
+      <c r="A13" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="20" customFormat="1">
+      <c r="A14" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A15" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="36" customFormat="1">
+      <c r="A16" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="19" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A10" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="19" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="20" customFormat="1">
-      <c r="A13" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="20" customFormat="1">
-      <c r="A14" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A15" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="36" customFormat="1">
-      <c r="A16" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="17" spans="1:5" s="35" customFormat="1" ht="15" thickBot="1">
-      <c r="A17" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>146</v>
+      <c r="A17" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="20" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="20" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="20" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="20" customFormat="1">
       <c r="A21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="20" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="20" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="20" customFormat="1">
       <c r="A24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>8</v>
-      </c>
       <c r="C24" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1">
       <c r="A27" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="20" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" s="20" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" s="20" customFormat="1">
       <c r="A31" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" s="20" customFormat="1">
       <c r="A32" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:4" s="20" customFormat="1">
       <c r="A33" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="19" customFormat="1">
       <c r="A35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="C35" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="20" customFormat="1">
       <c r="A36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A38" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>146</v>
+      <c r="A38" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="20" customFormat="1">
       <c r="A39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>15</v>
-      </c>
       <c r="C39" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="20" customFormat="1">
       <c r="A40" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="20" customFormat="1">
       <c r="A41" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="20" customFormat="1">
       <c r="A42" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="20" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="20" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="20" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="20" customFormat="1">
       <c r="A46" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="20" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A48" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1">
       <c r="A49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C49" s="20" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="20" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A51" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A52" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>146</v>
+      <c r="A52" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>140</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="19" customFormat="1">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="C53" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="20" customFormat="1">
-      <c r="A54" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>240</v>
+      <c r="A54" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A55" s="44" t="s">
-        <v>24</v>
+      <c r="A55" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>27</v>
-      </c>
       <c r="C56" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="20" customFormat="1">
       <c r="A57" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="20" customFormat="1">
       <c r="A59" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="20" customFormat="1">
       <c r="A60" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="20" customFormat="1">
       <c r="A61" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="20" customFormat="1">
       <c r="A62" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="20" customFormat="1">
       <c r="A63" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="20" customFormat="1">
       <c r="A64" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="20" customFormat="1">
       <c r="A65" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="20" customFormat="1">
       <c r="A66" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="20" customFormat="1">
       <c r="A67" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="20" customFormat="1">
       <c r="A68" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A69" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A69" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="20" customFormat="1">
-      <c r="A70" s="9" t="s">
+      <c r="B69" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="19" customFormat="1">
+      <c r="A70" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>116</v>
+      <c r="C70" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="20" customFormat="1">
       <c r="A71" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="20" customFormat="1">
+      <c r="A72" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A73" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1">
+      <c r="A74" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="20" customFormat="1">
-      <c r="A72" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A73" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="19" customFormat="1">
-      <c r="A74" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="14" t="s">
+      <c r="C74" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A75" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="20" customFormat="1">
-      <c r="A75" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>101</v>
+      <c r="C75" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A76" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A77" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>146</v>
+      <c r="A77" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="20" customFormat="1">
       <c r="A78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C78" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="20" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="20" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="20" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="20" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="20" customFormat="1">
       <c r="A83" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="20" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="20" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="20" customFormat="1">
       <c r="A86" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="20" customFormat="1">
       <c r="A87" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="20" customFormat="1">
       <c r="A88" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="20" customFormat="1">
       <c r="A89" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="20" customFormat="1">
       <c r="A90" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A91" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="19" customFormat="1">
       <c r="A92" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="D92" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A93" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>224</v>
-      </c>
       <c r="D93" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="20" customFormat="1">
       <c r="A94" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="20" customFormat="1">
       <c r="A95" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A96" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="19" customFormat="1">
       <c r="A97" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="20" customFormat="1">
       <c r="A98" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="60" t="s">
-        <v>208</v>
+        <v>142</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="20" customFormat="1">
       <c r="A99" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="60" t="s">
-        <v>210</v>
+        <v>142</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="20" customFormat="1">
       <c r="A100" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A101" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="19" customFormat="1">
       <c r="A102" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="20" customFormat="1">
       <c r="A103" s="9" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="20" customFormat="1">
       <c r="A104" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B104" s="46" t="s">
-        <v>173</v>
+        <v>210</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A105" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="19" customFormat="1">
       <c r="A106" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="C106" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="20" customFormat="1">
       <c r="A107" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="20" customFormat="1">
       <c r="A108" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="20" customFormat="1">
       <c r="A109" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="20" customFormat="1">
       <c r="A110" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="20" customFormat="1">
       <c r="A111" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="20" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="20" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="20" customFormat="1">
       <c r="A114" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="20" customFormat="1">
       <c r="A115" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="20" customFormat="1">
       <c r="A116" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="20" customFormat="1">
       <c r="A117" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D117" s="27">
         <v>8</v>
@@ -3158,55 +3162,55 @@
     </row>
     <row r="118" spans="1:4" s="20" customFormat="1">
       <c r="A118" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="20" customFormat="1">
       <c r="A119" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D119" s="53">
+        <v>100</v>
+      </c>
+      <c r="D119" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="20" customFormat="1">
       <c r="A120" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B120" s="38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="20" customFormat="1">
       <c r="A121" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D121" s="27">
         <v>2</v>
@@ -3214,13 +3218,13 @@
     </row>
     <row r="122" spans="1:4" s="20" customFormat="1">
       <c r="A122" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B122" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D122" s="27">
         <v>3</v>
@@ -3228,13 +3232,13 @@
     </row>
     <row r="123" spans="1:4" s="20" customFormat="1">
       <c r="A123" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B123" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D123" s="27">
         <v>4</v>
@@ -3242,912 +3246,954 @@
     </row>
     <row r="124" spans="1:4" s="20" customFormat="1">
       <c r="A124" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="20" customFormat="1">
       <c r="A125" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="20" customFormat="1">
       <c r="A126" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="20" customFormat="1">
       <c r="A127" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="20" customFormat="1">
       <c r="A128" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="20" customFormat="1">
       <c r="A129" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="20" customFormat="1">
       <c r="A130" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B130" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A131" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="36" customFormat="1">
-      <c r="A132" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="C132" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D132" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="20" customFormat="1">
+      <c r="A132" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="34" customFormat="1">
+      <c r="A133" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="34" customFormat="1">
+      <c r="A134" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B134" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" s="47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="35" customFormat="1" ht="15" thickBot="1">
-      <c r="A133" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="36" customFormat="1">
-      <c r="A134" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" s="35" customFormat="1" ht="15" thickBot="1">
-      <c r="A135" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" s="20" customFormat="1">
-      <c r="A136" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B136" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D136" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="20" customFormat="1">
-      <c r="A137" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="20" customFormat="1">
-      <c r="A138" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B138" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D138" s="27">
-        <v>8</v>
+    <row r="135" spans="1:4" s="34" customFormat="1">
+      <c r="A135" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="35" customFormat="1" ht="15" thickBot="1">
+      <c r="A136" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" s="49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="36" customFormat="1">
+      <c r="A137" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="35" customFormat="1" ht="15" thickBot="1">
+      <c r="A138" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" s="49" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="20" customFormat="1">
       <c r="A139" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C139" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D139" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="20" customFormat="1">
       <c r="A140" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>130</v>
+        <v>64</v>
+      </c>
+      <c r="B140" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="20" customFormat="1">
       <c r="A141" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>113</v>
+        <v>98</v>
+      </c>
+      <c r="D141" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="20" customFormat="1">
       <c r="A142" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="20" customFormat="1">
       <c r="A143" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B143" s="38" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="20" customFormat="1">
       <c r="A144" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B144" s="38" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D144" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" s="27" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="20" customFormat="1">
-      <c r="A145" s="38" t="s">
-        <v>65</v>
+      <c r="A145" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="20" customFormat="1">
       <c r="A146" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="20" customFormat="1">
-      <c r="A147" s="38" t="s">
-        <v>65</v>
+      <c r="A147" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D147" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="20" customFormat="1">
+      <c r="A148" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="20" customFormat="1">
+      <c r="A149" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="27" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A148" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D148" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="20" customFormat="1">
-      <c r="A149" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B149" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="20" customFormat="1">
       <c r="A150" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="20" customFormat="1">
-      <c r="A151" s="9" t="s">
-        <v>75</v>
+      <c r="A151" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="B151" s="38" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="20" customFormat="1">
       <c r="A152" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B152" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B152" s="38" t="s">
-        <v>79</v>
-      </c>
       <c r="C152" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="20" customFormat="1">
       <c r="A153" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="20" customFormat="1">
       <c r="A154" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="20" customFormat="1">
       <c r="A155" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D155" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="20" customFormat="1">
+      <c r="A156" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A156" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B156" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D156" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="19" customFormat="1">
-      <c r="A157" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C157" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>114</v>
+    <row r="157" spans="1:4" s="20" customFormat="1">
+      <c r="A157" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="20" customFormat="1">
       <c r="A158" s="9" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C158" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A159" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B159" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="D159" s="50" t="s">
-        <v>108</v>
+        <v>81</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A159" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="19" customFormat="1">
-      <c r="A160" s="61" t="s">
+      <c r="A160" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="20" customFormat="1">
+      <c r="A161" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A162" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D162" s="49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="19" customFormat="1">
+      <c r="A163" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="20" customFormat="1">
+      <c r="A164" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A165" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A166" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="55" customFormat="1" ht="15" thickBot="1">
+      <c r="A167" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D167" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="20" customFormat="1">
+      <c r="A168" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B160" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="20" customFormat="1">
-      <c r="A161" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A162" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B162" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A163" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B163" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="56" customFormat="1" ht="15" thickBot="1">
-      <c r="A164" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B164" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C164" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="D164" s="57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="20" customFormat="1">
-      <c r="A165" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B165" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="20" customFormat="1">
-      <c r="A166" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B166" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="20" customFormat="1">
-      <c r="A167" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B167" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D167" s="27" t="s">
+      <c r="B168" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" s="27" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="20" customFormat="1">
-      <c r="A168" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B168" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D168" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="20" customFormat="1">
       <c r="A169" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B169" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="C169" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="20" customFormat="1">
+      <c r="A170" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="20" customFormat="1">
+      <c r="A171" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="20" customFormat="1">
+      <c r="A172" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="20" customFormat="1">
+      <c r="A173" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C173" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A174" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B174" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="19" customFormat="1">
+      <c r="A175" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D175" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D169" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="20" customFormat="1">
-      <c r="A170" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B170" s="38" t="s">
+    </row>
+    <row r="176" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A176" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="19" customFormat="1">
+      <c r="A177" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C170" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D170" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A171" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B171" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="19" customFormat="1">
-      <c r="A172" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D172" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A173" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C173" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="19" customFormat="1">
-      <c r="A174" s="2" t="s">
+      <c r="B177" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="C177" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="34" customFormat="1">
+      <c r="A178" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B178" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C174" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="34" customFormat="1">
-      <c r="A175" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B175" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A176" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C176" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="34" customFormat="1">
-      <c r="A177" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="B177" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D177" s="48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="34" customFormat="1" ht="15" thickBot="1">
-      <c r="A178" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="B178" s="71" t="s">
-        <v>146</v>
-      </c>
       <c r="C178" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D178" s="48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A179" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B179" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D179" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A180" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D178" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A179" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="34" customFormat="1">
+      <c r="A180" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B180" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="34" customFormat="1" ht="15" thickBot="1">
+      <c r="A181" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D181" s="47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A182" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D182" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A183" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A184" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B184" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A185" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="B180" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D180" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A181" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B181" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D181" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A182" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="B182" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D182" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A183" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="B183" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D183" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A184" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="B184" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B185" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D185" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B186" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D186" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B187" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D187" s="32" t="s">
-        <v>108</v>
+      <c r="B185" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D185" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A186" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A187" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B187" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D187" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="38" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>95</v>
+        <v>140</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D190" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D191" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Simbologia.xlsx
+++ b/Scripts/Simbologia.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13092" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="273">
   <si>
     <t>Color</t>
   </si>
@@ -195,9 +195,6 @@
     <t>MC20</t>
   </si>
   <si>
-    <t>MC21</t>
-  </si>
-  <si>
     <t>MC22</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>hotpink</t>
   </si>
   <si>
-    <t>darkviolet</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -387,6 +381,15 @@
     <t>D</t>
   </si>
   <si>
+    <t>MD07-3098</t>
+  </si>
+  <si>
+    <t>MD07-3100</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>Below Mil hojas</t>
   </si>
   <si>
@@ -441,12 +444,15 @@
     <t>MEN1</t>
   </si>
   <si>
+    <t>LPT2</t>
+  </si>
+  <si>
+    <t>CLD235C</t>
+  </si>
+  <si>
     <t>Hudson</t>
   </si>
   <si>
-    <t>H0</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -582,6 +588,9 @@
     <t>HW1</t>
   </si>
   <si>
+    <t>MD07-3088</t>
+  </si>
+  <si>
     <t>violet</t>
   </si>
   <si>
@@ -594,6 +603,9 @@
     <t>∼11.7 ka MEN</t>
   </si>
   <si>
+    <t>Prueba</t>
+  </si>
+  <si>
     <t>MENo</t>
   </si>
   <si>
@@ -606,6 +618,15 @@
     <t>Chufquén</t>
   </si>
   <si>
+    <t>MD07-3119</t>
+  </si>
+  <si>
+    <t>MD07-3082</t>
+  </si>
+  <si>
+    <t>MD07-3081</t>
+  </si>
+  <si>
     <t>Osorno1545</t>
   </si>
   <si>
@@ -675,9 +696,6 @@
     <t>HoSc</t>
   </si>
   <si>
-    <t>Maca</t>
-  </si>
-  <si>
     <t>MAC1</t>
   </si>
   <si>
@@ -723,6 +741,36 @@
     <t>Volcan</t>
   </si>
   <si>
+    <t>LTT-20</t>
+  </si>
+  <si>
+    <t>LTT-9</t>
+  </si>
+  <si>
+    <t>LTT-10</t>
+  </si>
+  <si>
+    <t>LTT-8</t>
+  </si>
+  <si>
+    <t>LTT-15</t>
+  </si>
+  <si>
+    <t>LTT-14</t>
+  </si>
+  <si>
+    <t>LTT-26</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>LTT-18</t>
+  </si>
+  <si>
+    <t>LTT-7</t>
+  </si>
+  <si>
     <t>Cordón Cabrera</t>
   </si>
   <si>
@@ -759,13 +807,37 @@
     <t>P17-4CBd</t>
   </si>
   <si>
+    <t>P929-930; L247-3</t>
+  </si>
+  <si>
+    <t>P933-934; L247-4</t>
+  </si>
+  <si>
     <t>Curacautín 1</t>
   </si>
   <si>
     <t>Curacautín 2</t>
   </si>
   <si>
+    <t>LTT-3</t>
+  </si>
+  <si>
     <t>Ca11</t>
+  </si>
+  <si>
+    <t>dimgrey</t>
+  </si>
+  <si>
+    <t>indigo</t>
+  </si>
+  <si>
+    <t>Macá</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Pilmaiquén</t>
   </si>
 </sst>
 </file>
@@ -776,7 +848,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +916,13 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -890,6 +969,13 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -990,7 +1076,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,15 +1086,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,6 +1192,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,10 +1273,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,25 +1285,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,13 +1315,16 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,27 +1624,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="22"/>
+    <col min="1" max="1" width="21.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -1560,212 +1655,212 @@
     </row>
     <row r="2" spans="1:4" s="19" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>169</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>168</v>
+        <v>137</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="20" customFormat="1">
+      <c r="A4" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1">
+      <c r="A5" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="20" customFormat="1">
+      <c r="A6" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="20" customFormat="1">
-      <c r="A4" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1">
-      <c r="A5" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="20" customFormat="1">
-      <c r="A6" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A7" s="37" t="s">
-        <v>223</v>
+    <row r="7" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="19" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>136</v>
+      <c r="B9" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="19" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>136</v>
+        <v>172</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="20" customFormat="1">
-      <c r="A12" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="20" customFormat="1">
+      <c r="A13" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C13" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="20" customFormat="1">
-      <c r="A13" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A14" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>180</v>
+    <row r="14" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A14" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="35" customFormat="1">
-      <c r="A15" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="34" customFormat="1" ht="15" thickBot="1">
-      <c r="A16" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="36" customFormat="1">
+      <c r="A15" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="20" customFormat="1">
@@ -1773,13 +1868,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="20" customFormat="1">
@@ -1787,13 +1882,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="20" customFormat="1">
@@ -1801,13 +1896,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="20" customFormat="1">
@@ -1815,13 +1910,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="20" customFormat="1">
@@ -1829,13 +1924,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="20" customFormat="1">
@@ -1843,181 +1938,181 @@
         <v>5</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="20" customFormat="1">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="20" customFormat="1">
       <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>211</v>
+      <c r="B24" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="20" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>214</v>
+      <c r="B25" s="38" t="s">
+        <v>221</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="20" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>215</v>
+      <c r="B26" s="38" t="s">
+        <v>222</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="20" customFormat="1">
       <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="20" customFormat="1">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>212</v>
+      <c r="B28" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="20" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>213</v>
+      <c r="B29" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="20" customFormat="1">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>248</v>
+      <c r="B30" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="20" customFormat="1">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>161</v>
+      <c r="B31" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="20" customFormat="1">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="20" customFormat="1">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>210</v>
+      <c r="B33" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A34" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>136</v>
+      <c r="B34" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="19" customFormat="1">
@@ -2028,192 +2123,192 @@
         <v>10</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="20" customFormat="1">
       <c r="A36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>136</v>
+      <c r="B37" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A38" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>136</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A38" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="20" customFormat="1">
       <c r="A39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="20" customFormat="1">
       <c r="A40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>137</v>
+      <c r="B40" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="20" customFormat="1">
       <c r="A41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>163</v>
+      <c r="B41" s="38" t="s">
+        <v>165</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="20" customFormat="1">
       <c r="A42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="37" t="s">
-        <v>164</v>
+      <c r="B42" s="38" t="s">
+        <v>166</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="20" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="20" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="20" customFormat="1">
       <c r="A45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="20" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="20" customFormat="1">
       <c r="A47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1">
@@ -2224,13 +2319,13 @@
         <v>20</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>19</v>
       </c>
@@ -2238,290 +2333,290 @@
         <v>21</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A51" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="50" t="s">
-        <v>136</v>
+      <c r="B51" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A52" s="11" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A53" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>136</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="19" customFormat="1">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="20" customFormat="1">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>217</v>
+      <c r="B55" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A56" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A56" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="20" customFormat="1">
       <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="20" customFormat="1">
       <c r="A60" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="20" customFormat="1">
       <c r="A61" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>186</v>
+        <v>143</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="20" customFormat="1">
       <c r="A62" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="20" customFormat="1">
       <c r="A63" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>183</v>
+        <v>143</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="20" customFormat="1">
       <c r="A64" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="20" customFormat="1">
       <c r="A65" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="38" t="s">
         <v>143</v>
       </c>
+      <c r="B65" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="C65" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="20" customFormat="1">
       <c r="A66" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>184</v>
+        <v>143</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="20" customFormat="1">
       <c r="A67" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>185</v>
+        <v>143</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>187</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="20" customFormat="1">
       <c r="A68" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>192</v>
+        <v>143</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="20" customFormat="1">
       <c r="A69" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>202</v>
+        <v>143</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A70" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A70" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="19" customFormat="1">
@@ -2531,151 +2626,151 @@
       <c r="B71" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="35" t="s">
-        <v>132</v>
+      <c r="C71" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="20" customFormat="1">
       <c r="A72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>132</v>
+      <c r="C72" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="20" customFormat="1">
       <c r="A73" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="33" t="s">
-        <v>132</v>
+      <c r="C73" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A74" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="19" customFormat="1">
       <c r="A75" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="20" customFormat="1">
-      <c r="A76" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="37" t="s">
+      <c r="A76" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A77" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>136</v>
+        <v>146</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="19" customFormat="1">
       <c r="A78" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="20" customFormat="1">
       <c r="A79" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="20" customFormat="1">
       <c r="A80" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="72" t="s">
-        <v>238</v>
+        <v>174</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>254</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A81" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="71" t="s">
-        <v>237</v>
+        <v>174</v>
+      </c>
+      <c r="B81" s="73" t="s">
+        <v>253</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="20" customFormat="1">
@@ -2686,10 +2781,10 @@
         <v>33</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="20" customFormat="1">
@@ -2697,13 +2792,13 @@
         <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="20" customFormat="1">
@@ -2714,10 +2809,10 @@
         <v>34</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="20" customFormat="1">
@@ -2725,13 +2820,13 @@
         <v>32</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="20" customFormat="1">
@@ -2742,10 +2837,10 @@
         <v>35</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="20" customFormat="1">
@@ -2756,10 +2851,10 @@
         <v>36</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="20" customFormat="1">
@@ -2767,13 +2862,13 @@
         <v>32</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="20" customFormat="1">
@@ -2784,10 +2879,10 @@
         <v>37</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="20" customFormat="1">
@@ -2798,10 +2893,10 @@
         <v>38</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="20" customFormat="1">
@@ -2812,122 +2907,122 @@
         <v>39</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="20" customFormat="1">
       <c r="A92" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="37" t="s">
-        <v>147</v>
+      <c r="B92" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="20" customFormat="1">
       <c r="A93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="20" customFormat="1">
       <c r="A94" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="37" t="s">
-        <v>246</v>
+      <c r="B94" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="20" customFormat="1">
       <c r="A95" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="37" t="s">
-        <v>247</v>
+      <c r="B95" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="20" customFormat="1">
       <c r="A96" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="20" t="s">
-        <v>135</v>
-      </c>
       <c r="D96" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A97" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="38" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="19" customFormat="1">
       <c r="A98" s="7" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="8" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="20" customFormat="1">
@@ -2935,251 +3030,251 @@
         <v>41</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="20" customFormat="1">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="38" t="s">
         <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="19" customFormat="1">
       <c r="A103" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="20" customFormat="1">
       <c r="A104" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B104" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C104" s="20" t="s">
-        <v>187</v>
-      </c>
       <c r="D104" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="20" customFormat="1">
       <c r="A105" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B105" s="58" t="s">
-        <v>191</v>
+        <v>139</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>195</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="20" customFormat="1">
       <c r="A106" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="19" customFormat="1">
       <c r="A108" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="20" customFormat="1">
       <c r="A109" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="20" customFormat="1">
       <c r="A110" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="44" t="s">
-        <v>159</v>
+        <v>137</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="20" customFormat="1">
       <c r="A111" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B111" s="44" t="s">
-        <v>240</v>
+        <v>205</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>256</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="20" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B112" s="44" t="s">
-        <v>241</v>
+        <v>205</v>
+      </c>
+      <c r="B112" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="20" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B113" s="44" t="s">
-        <v>242</v>
+        <v>205</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>258</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="20" customFormat="1">
       <c r="A114" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="44" t="s">
-        <v>245</v>
+        <v>205</v>
+      </c>
+      <c r="B114" s="45" t="s">
+        <v>261</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="20" customFormat="1">
       <c r="A115" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B115" s="44" t="s">
-        <v>243</v>
+        <v>205</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="20" customFormat="1">
       <c r="A116" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="44" t="s">
-        <v>244</v>
+        <v>205</v>
+      </c>
+      <c r="B116" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A117" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="19" customFormat="1">
@@ -3190,161 +3285,161 @@
         <v>45</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="20" customFormat="1">
       <c r="A119" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="20" customFormat="1">
       <c r="A120" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="20" customFormat="1">
       <c r="A121" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="37" t="s">
-        <v>154</v>
+      <c r="B121" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="20" customFormat="1">
       <c r="A122" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="37" t="s">
-        <v>153</v>
+      <c r="B122" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="20" customFormat="1">
       <c r="A123" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="20" customFormat="1">
       <c r="A124" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="20" customFormat="1">
       <c r="A125" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="20" customFormat="1">
       <c r="A126" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="37" t="s">
-        <v>152</v>
+      <c r="B126" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="20" customFormat="1">
       <c r="A127" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="38" t="s">
         <v>51</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="20" customFormat="1">
       <c r="A128" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="20" customFormat="1">
       <c r="A129" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D129" s="27">
         <v>8</v>
@@ -3354,27 +3449,27 @@
       <c r="A130" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="20" customFormat="1">
       <c r="A131" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D131" s="51">
+        <v>98</v>
+      </c>
+      <c r="D131" s="52">
         <v>1</v>
       </c>
     </row>
@@ -3382,25 +3477,25 @@
       <c r="A132" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B132" s="37" t="s">
-        <v>151</v>
+      <c r="B132" s="38" t="s">
+        <v>153</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="20" customFormat="1">
       <c r="A133" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="37" t="s">
-        <v>150</v>
+      <c r="B133" s="38" t="s">
+        <v>152</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D133" s="27">
         <v>2</v>
@@ -3410,11 +3505,11 @@
       <c r="A134" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D134" s="27">
         <v>3</v>
@@ -3424,11 +3519,11 @@
       <c r="A135" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D135" s="27">
         <v>4</v>
@@ -3438,249 +3533,249 @@
       <c r="A136" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="37" t="s">
-        <v>58</v>
+      <c r="B136" s="38" t="s">
+        <v>272</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="20" customFormat="1">
       <c r="A137" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="37" t="s">
-        <v>59</v>
+      <c r="B137" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="20" customFormat="1">
       <c r="A138" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="37" t="s">
-        <v>149</v>
+      <c r="B138" s="38" t="s">
+        <v>151</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="D138" s="77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="20" customFormat="1">
       <c r="A139" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="37" t="s">
-        <v>60</v>
+      <c r="B139" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D139" s="27" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="D139" s="77" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="20" customFormat="1">
       <c r="A140" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B140" s="37" t="s">
-        <v>148</v>
+      <c r="B140" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="20" customFormat="1">
       <c r="A141" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="20" customFormat="1">
+      <c r="A142" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="20" customFormat="1">
-      <c r="A142" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B142" s="37" t="s">
-        <v>62</v>
-      </c>
       <c r="C142" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="20" customFormat="1">
-      <c r="A144" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>225</v>
+      <c r="A144" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="D144" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="34" customFormat="1">
+      <c r="A145" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D145" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="34" customFormat="1">
+      <c r="A146" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B146" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146" s="47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="33" customFormat="1">
-      <c r="A145" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B145" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D145" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" s="33" customFormat="1">
-      <c r="A146" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B146" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="33" customFormat="1">
-      <c r="A147" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B147" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D147" s="46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="34" customFormat="1" ht="15" thickBot="1">
-      <c r="A148" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="35" customFormat="1">
-      <c r="A149" s="63" t="s">
+    <row r="147" spans="1:4" s="34" customFormat="1">
+      <c r="A147" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="B149" s="64" t="s">
+      <c r="B147" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D147" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A148" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="C149" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D149" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="34" customFormat="1" ht="15" thickBot="1">
-      <c r="A150" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B150" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D150" s="48" t="s">
-        <v>103</v>
+      <c r="B148" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D148" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="36" customFormat="1">
+      <c r="A149" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A150" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" s="49" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="20" customFormat="1">
       <c r="A151" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B151" s="37" t="s">
-        <v>64</v>
-      </c>
       <c r="C151" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="20" customFormat="1">
       <c r="A152" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B152" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="20" customFormat="1">
       <c r="A153" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B153" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D153" s="27">
         <v>8</v>
@@ -3688,583 +3783,928 @@
     </row>
     <row r="154" spans="1:4" s="20" customFormat="1">
       <c r="A154" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B154" s="37" t="s">
-        <v>224</v>
+        <v>62</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="20" customFormat="1">
       <c r="A155" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="20" customFormat="1">
       <c r="A156" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>122</v>
+        <v>62</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="20" customFormat="1">
       <c r="A157" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B157" s="37" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="20" customFormat="1">
       <c r="A158" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B158" s="37" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="20" customFormat="1">
       <c r="A159" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B159" s="37" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="B159" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="20" customFormat="1">
       <c r="A160" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B160" s="37" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="B160" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D160" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="20" customFormat="1">
-      <c r="A161" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B161" s="37" t="s">
-        <v>123</v>
+      <c r="A161" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D161" s="46" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="20" customFormat="1">
       <c r="A162" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B162" s="37" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="B162" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D162" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>96</v>
+      </c>
+      <c r="D162" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A163" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="20" customFormat="1">
       <c r="A164" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B164" s="37" t="s">
-        <v>74</v>
-      </c>
       <c r="C164" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="20" customFormat="1">
       <c r="A165" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="20" customFormat="1">
       <c r="A166" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B166" s="37" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="20" customFormat="1">
       <c r="A167" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B167" s="37" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B167" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="20" customFormat="1">
       <c r="A168" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B168" s="37" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="20" customFormat="1">
       <c r="A169" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B169" s="37" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="20" customFormat="1">
       <c r="A170" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B170" s="37" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D170" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A171" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B171" s="37" t="s">
-        <v>136</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A171" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="19" customFormat="1">
       <c r="A172" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D172" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="20" customFormat="1">
       <c r="A173" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" s="37" t="s">
-        <v>189</v>
+        <v>176</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="C173" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A174" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D174" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="19" customFormat="1">
+      <c r="A175" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B175" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D173" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A174" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C174" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="19" customFormat="1">
-      <c r="A175" s="59" t="s">
+      <c r="C175" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="20" customFormat="1">
+      <c r="A176" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A177" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B177" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A178" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="55" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A179" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C179" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D179" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="20" customFormat="1">
+      <c r="A180" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B175" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D175" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="20" customFormat="1">
-      <c r="A176" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D176" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A177" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B177" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C177" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D177" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A178" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B178" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D178" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="54" customFormat="1" ht="15" thickBot="1">
-      <c r="A179" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B179" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C179" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D179" s="55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="20" customFormat="1">
-      <c r="A180" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B180" s="44" t="s">
-        <v>160</v>
+      <c r="B180" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="20" customFormat="1">
       <c r="A181" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B181" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B181" s="44" t="s">
-        <v>83</v>
-      </c>
       <c r="C181" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="20" customFormat="1">
       <c r="A182" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B182" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="C182" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D182" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="20" customFormat="1">
       <c r="A183" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B183" s="37" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="B183" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="20" customFormat="1">
       <c r="A184" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B184" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B184" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="20" customFormat="1">
+      <c r="A185" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B185" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C184" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D184" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="20" customFormat="1">
-      <c r="A185" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B185" s="37" t="s">
-        <v>87</v>
-      </c>
       <c r="C185" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A186" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B186" s="37" t="s">
-        <v>136</v>
+        <v>81</v>
+      </c>
+      <c r="B186" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="19" customFormat="1">
       <c r="A187" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B187" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B187" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="C187" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A188" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="19" customFormat="1">
       <c r="A189" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B189" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="C189" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="34" customFormat="1">
+      <c r="A190" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B190" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C189" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="33" customFormat="1">
-      <c r="A190" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B190" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C190" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D190" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A191" s="47" t="s">
-        <v>88</v>
+      <c r="C190" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A191" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="33" customFormat="1">
-      <c r="A192" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B192" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C192" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D192" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="34" customFormat="1">
+      <c r="A192" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B192" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D192" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="34" customFormat="1">
+      <c r="A193" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B193" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C193" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D193" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B194" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D194" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" thickBot="1">
+      <c r="C195" s="20"/>
+    </row>
+    <row r="196" spans="1:5" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A196" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B196" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A197" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B197" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A198" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B198" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D198" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A199" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A200" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A201" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D201" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D202" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D203" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D204" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A205" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D205" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B206" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E206" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A207" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B207" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D207" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E207" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A208" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B208" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D208" s="26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" s="33" customFormat="1">
-      <c r="A193" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B193" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C193" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D193" s="46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B194" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D194" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="22.8">
-      <c r="A195" s="74"/>
-    </row>
-    <row r="196" spans="1:4" ht="22.8">
-      <c r="A196" s="73"/>
+      <c r="E208" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B209" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B210" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B211" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B212" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D212" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A213" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B213" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D213" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A214" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B214" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D214" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B215" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E215" s="22"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A216" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B216" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D216" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E216" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B217" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D217" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E217" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="22.5">
+      <c r="A218" s="76"/>
+    </row>
+    <row r="219" spans="1:5" ht="22.5">
+      <c r="A219" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scripts/Simbologia.xlsx
+++ b/Scripts/Simbologia.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\OneDrive\PhD\TephraDataBase\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8adc581d7b252b59/PhD/TephraDataBase/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_EB76BA45DAEC54BFC8E930C90D8271EFE702740E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B17B28F-E854-4ADA-A1CB-C3A34FE6FAF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="7530"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="282">
   <si>
     <t>Color</t>
   </si>
@@ -462,9 +463,6 @@
     <t>Lanín</t>
   </si>
   <si>
-    <t>Evento</t>
-  </si>
-  <si>
     <t>Playas Blanca-Negra</t>
   </si>
   <si>
@@ -537,9 +535,6 @@
     <t>palegreen</t>
   </si>
   <si>
-    <t>Burney</t>
-  </si>
-  <si>
     <t>rosybrown</t>
   </si>
   <si>
@@ -738,9 +733,6 @@
     <t>xkcd:spruce</t>
   </si>
   <si>
-    <t>Volcan</t>
-  </si>
-  <si>
     <t>LTT-20</t>
   </si>
   <si>
@@ -783,9 +775,6 @@
     <t>Lautaro1959-60</t>
   </si>
   <si>
-    <t>Lautaaro1876/78-79</t>
-  </si>
-  <si>
     <t>Nahuel Huapi</t>
   </si>
   <si>
@@ -838,12 +827,51 @@
   </si>
   <si>
     <t>Pilmaiquén</t>
+  </si>
+  <si>
+    <t>Monte Burney</t>
+  </si>
+  <si>
+    <t>Volcano</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>xkcd:marigold</t>
+  </si>
+  <si>
+    <t>xkcd:orange red</t>
+  </si>
+  <si>
+    <t>xkcd:bright lavender</t>
+  </si>
+  <si>
+    <t>xkcd:purply blue</t>
+  </si>
+  <si>
+    <t>xkcd:turquoise</t>
+  </si>
+  <si>
+    <t>YaSc</t>
+  </si>
+  <si>
+    <t>Lautaro1876/78-79</t>
+  </si>
+  <si>
+    <t>Personal work</t>
+  </si>
+  <si>
+    <t>BOOM: Tephrochronological data set of the SVZ and AVZ and exploration tools.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -916,13 +944,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -973,6 +994,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1076,7 +1103,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1086,15 +1113,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,9 +1219,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,10 +1297,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,28 +1309,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,38 +1336,48 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Excel Built-in Normal" xfId="13"/>
-    <cellStyle name="Milliers 2" xfId="10"/>
+    <cellStyle name="Excel Built-in Normal" xfId="13" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Milliers 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="15"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="6"/>
-    <cellStyle name="Normal 4 3" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal 7" xfId="7"/>
-    <cellStyle name="Normal 7 2" xfId="8"/>
-    <cellStyle name="Normal 7 2 2" xfId="16"/>
-    <cellStyle name="Normale 2" xfId="17"/>
-    <cellStyle name="Standard 34" xfId="12"/>
-    <cellStyle name="Standard 5" xfId="14"/>
-    <cellStyle name="Standard_Probenliste-2008 2" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 7" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 7 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normale 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Standard 34" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Standard 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Standard_Probenliste-2008 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1623,28 +1654,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5703125" style="22"/>
+    <col min="1" max="1" width="21.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -1653,95 +1685,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="19" customFormat="1">
+    <row r="2" spans="1:6" s="19" customFormat="1">
       <c r="A2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F2" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>170</v>
+      <c r="C3" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="20" customFormat="1">
-      <c r="A4" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" s="20" customFormat="1">
+      <c r="A4" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1">
-      <c r="A5" s="38" t="s">
-        <v>229</v>
+      <c r="F4" s="78"/>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1">
+      <c r="A5" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="20" customFormat="1">
-      <c r="A6" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>255</v>
+      <c r="F5" s="78"/>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1">
+      <c r="A6" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="38" t="s">
-        <v>229</v>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A7" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="19" customFormat="1">
+      <c r="F7" s="78"/>
+    </row>
+    <row r="8" spans="1:6" s="19" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1750,12 +1790,13 @@
       <c r="D8" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="40" t="s">
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -1764,111 +1805,119 @@
       <c r="D9" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F9" s="78"/>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="78"/>
+    </row>
+    <row r="11" spans="1:6" s="19" customFormat="1">
+      <c r="A11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="19" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="D11" s="26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="20" customFormat="1">
-      <c r="A12" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>183</v>
+      <c r="F11" s="78"/>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1">
+      <c r="A12" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="20" customFormat="1">
-      <c r="A13" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>181</v>
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="1:6" s="20" customFormat="1">
+      <c r="A13" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A14" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>182</v>
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A14" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="36" customFormat="1">
-      <c r="A15" s="64" t="s">
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:6" s="35" customFormat="1">
+      <c r="A15" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="66" t="s">
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="1:6" s="34" customFormat="1" ht="15" thickBot="1">
+      <c r="A16" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="20" customFormat="1">
+      <c r="D16" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="78"/>
+    </row>
+    <row r="17" spans="1:6" s="20" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>95</v>
@@ -1876,13 +1925,14 @@
       <c r="D17" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="20" customFormat="1">
+      <c r="F17" s="78"/>
+    </row>
+    <row r="18" spans="1:6" s="20" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>95</v>
@@ -1890,13 +1940,14 @@
       <c r="D18" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="20" customFormat="1">
+      <c r="F18" s="78"/>
+    </row>
+    <row r="19" spans="1:6" s="20" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>95</v>
@@ -1904,13 +1955,14 @@
       <c r="D19" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="20" customFormat="1">
+      <c r="F19" s="78"/>
+    </row>
+    <row r="20" spans="1:6" s="20" customFormat="1">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>95</v>
@@ -1918,13 +1970,14 @@
       <c r="D20" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="20" customFormat="1">
+      <c r="F20" s="78"/>
+    </row>
+    <row r="21" spans="1:6" s="20" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>95</v>
@@ -1932,13 +1985,14 @@
       <c r="D21" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="20" customFormat="1">
+      <c r="F21" s="78"/>
+    </row>
+    <row r="22" spans="1:6" s="20" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>95</v>
@@ -1946,12 +2000,13 @@
       <c r="D22" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="20" customFormat="1">
-      <c r="A23" s="38" t="s">
+      <c r="F22" s="78"/>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1">
+      <c r="A23" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -1960,13 +2015,14 @@
       <c r="D23" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="20" customFormat="1">
+      <c r="F23" s="78"/>
+    </row>
+    <row r="24" spans="1:6" s="20" customFormat="1">
       <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>218</v>
+      <c r="B24" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>95</v>
@@ -1974,13 +2030,14 @@
       <c r="D24" s="29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="20" customFormat="1">
+      <c r="F24" s="78"/>
+    </row>
+    <row r="25" spans="1:6" s="20" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>221</v>
+      <c r="B25" s="37" t="s">
+        <v>219</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>95</v>
@@ -1988,13 +2045,14 @@
       <c r="D25" s="29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="20" customFormat="1">
+      <c r="F25" s="78"/>
+    </row>
+    <row r="26" spans="1:6" s="20" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>222</v>
+      <c r="B26" s="37" t="s">
+        <v>220</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>95</v>
@@ -2002,12 +2060,13 @@
       <c r="D26" s="29" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="20" customFormat="1">
+      <c r="F26" s="78"/>
+    </row>
+    <row r="27" spans="1:6" s="20" customFormat="1">
       <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -2016,27 +2075,29 @@
       <c r="D27" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="20" customFormat="1">
+      <c r="F27" s="78"/>
+    </row>
+    <row r="28" spans="1:6" s="20" customFormat="1">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>219</v>
+      <c r="B28" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="20" customFormat="1">
+        <v>221</v>
+      </c>
+      <c r="F28" s="78"/>
+    </row>
+    <row r="29" spans="1:6" s="20" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>220</v>
+      <c r="B29" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>95</v>
@@ -2044,13 +2105,14 @@
       <c r="D29" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="20" customFormat="1">
+      <c r="F29" s="78"/>
+    </row>
+    <row r="30" spans="1:6" s="20" customFormat="1">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="38" t="s">
-        <v>267</v>
+      <c r="B30" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>95</v>
@@ -2058,13 +2120,14 @@
       <c r="D30" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="20" customFormat="1">
+      <c r="F30" s="78"/>
+    </row>
+    <row r="31" spans="1:6" s="20" customFormat="1">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>163</v>
+      <c r="B31" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>95</v>
@@ -2072,12 +2135,13 @@
       <c r="D31" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="20" customFormat="1">
-      <c r="A32" s="38" t="s">
+      <c r="F31" s="78"/>
+    </row>
+    <row r="32" spans="1:6" s="20" customFormat="1">
+      <c r="A32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
@@ -2086,13 +2150,14 @@
       <c r="D32" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="20" customFormat="1">
-      <c r="A33" s="38" t="s">
+      <c r="F32" s="78"/>
+    </row>
+    <row r="33" spans="1:6" s="20" customFormat="1">
+      <c r="A33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>217</v>
+      <c r="B33" s="37" t="s">
+        <v>215</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>95</v>
@@ -2100,12 +2165,13 @@
       <c r="D33" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="38" t="s">
+      <c r="F33" s="78"/>
+    </row>
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A34" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -2114,8 +2180,9 @@
       <c r="D34" s="29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="19" customFormat="1">
+      <c r="F34" s="78"/>
+    </row>
+    <row r="35" spans="1:6" s="19" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>9</v>
       </c>
@@ -2123,59 +2190,63 @@
         <v>10</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="20" customFormat="1">
+      <c r="F35" s="78"/>
+    </row>
+    <row r="36" spans="1:6" s="20" customFormat="1">
       <c r="A36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F36" s="78"/>
+    </row>
+    <row r="37" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A38" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38" s="54" t="s">
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A38" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="53" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="20" customFormat="1">
+      <c r="F38" s="78"/>
+    </row>
+    <row r="39" spans="1:6" s="20" customFormat="1">
       <c r="A39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="20" t="s">
@@ -2184,12 +2255,13 @@
       <c r="D39" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="20" customFormat="1">
+      <c r="F39" s="78"/>
+    </row>
+    <row r="40" spans="1:6" s="20" customFormat="1">
       <c r="A40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="20" t="s">
@@ -2198,13 +2270,14 @@
       <c r="D40" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="20" customFormat="1">
+      <c r="F40" s="78"/>
+    </row>
+    <row r="41" spans="1:6" s="20" customFormat="1">
       <c r="A41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>165</v>
+      <c r="B41" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>132</v>
@@ -2212,13 +2285,14 @@
       <c r="D41" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="20" customFormat="1">
+      <c r="F41" s="78"/>
+    </row>
+    <row r="42" spans="1:6" s="20" customFormat="1">
       <c r="A42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>166</v>
+      <c r="B42" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>132</v>
@@ -2226,12 +2300,13 @@
       <c r="D42" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="20" customFormat="1">
+      <c r="F42" s="78"/>
+    </row>
+    <row r="43" spans="1:6" s="20" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="20" t="s">
@@ -2240,12 +2315,13 @@
       <c r="D43" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="20" customFormat="1">
+      <c r="F43" s="78"/>
+    </row>
+    <row r="44" spans="1:6" s="20" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="20" t="s">
@@ -2254,12 +2330,13 @@
       <c r="D44" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="20" customFormat="1">
+      <c r="F44" s="78"/>
+    </row>
+    <row r="45" spans="1:6" s="20" customFormat="1">
       <c r="A45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="20" t="s">
@@ -2268,12 +2345,13 @@
       <c r="D45" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="20" customFormat="1">
+      <c r="F45" s="78"/>
+    </row>
+    <row r="46" spans="1:6" s="20" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="20" t="s">
@@ -2282,12 +2360,13 @@
       <c r="D46" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="20" customFormat="1">
+      <c r="F46" s="78"/>
+    </row>
+    <row r="47" spans="1:6" s="20" customFormat="1">
       <c r="A47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -2296,8 +2375,9 @@
       <c r="D47" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F47" s="78"/>
+    </row>
+    <row r="48" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A48" s="8" t="s">
         <v>12</v>
       </c>
@@ -2310,8 +2390,9 @@
       <c r="D48" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="20" customFormat="1">
+      <c r="F48" s="78"/>
+    </row>
+    <row r="49" spans="1:6" s="20" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
@@ -2319,13 +2400,14 @@
         <v>20</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F49" s="78"/>
+    </row>
+    <row r="50" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>19</v>
       </c>
@@ -2333,56 +2415,60 @@
         <v>21</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="50" t="s">
+      <c r="F50" s="78"/>
+    </row>
+    <row r="51" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A51" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="50" t="s">
         <v>137</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A52" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A53" s="50" t="s">
+      <c r="F52" s="78"/>
+    </row>
+    <row r="53" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A53" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>168</v>
-      </c>
       <c r="D53" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="19" customFormat="1">
-      <c r="A54" s="42" t="s">
+      <c r="F53" s="78"/>
+    </row>
+    <row r="54" spans="1:6" s="19" customFormat="1">
+      <c r="A54" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -2394,13 +2480,14 @@
       <c r="D54" s="26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="20" customFormat="1">
-      <c r="A55" s="72" t="s">
+      <c r="F54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" s="20" customFormat="1">
+      <c r="A55" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>224</v>
+      <c r="B55" s="40" t="s">
+        <v>222</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>129</v>
@@ -2408,9 +2495,10 @@
       <c r="D55" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A56" s="43" t="s">
+      <c r="F55" s="78"/>
+    </row>
+    <row r="56" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A56" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="24" t="s">
@@ -2422,12 +2510,13 @@
       <c r="D56" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="F56" s="78"/>
+    </row>
+    <row r="57" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="20" t="s">
@@ -2436,12 +2525,13 @@
       <c r="D57" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="20" customFormat="1">
+      <c r="F57" s="78"/>
+    </row>
+    <row r="58" spans="1:6" s="20" customFormat="1">
       <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="20" t="s">
@@ -2450,8 +2540,9 @@
       <c r="D58" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F58" s="78"/>
+    </row>
+    <row r="59" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
@@ -2464,218 +2555,234 @@
       <c r="D59" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="20" customFormat="1">
+      <c r="F59" s="78"/>
+    </row>
+    <row r="60" spans="1:6" s="20" customFormat="1">
       <c r="A60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>271</v>
+      <c r="B60" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" s="20" customFormat="1">
+      <c r="F60" s="78"/>
+    </row>
+    <row r="61" spans="1:6" s="20" customFormat="1">
       <c r="A61" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>188</v>
+      <c r="B61" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="20" customFormat="1">
+      <c r="F61" s="78"/>
+    </row>
+    <row r="62" spans="1:6" s="20" customFormat="1">
       <c r="A62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>184</v>
+      <c r="B62" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="20" customFormat="1">
+      <c r="F62" s="78"/>
+    </row>
+    <row r="63" spans="1:6" s="20" customFormat="1">
       <c r="A63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="38" t="s">
-        <v>185</v>
+      <c r="B63" s="37" t="s">
+        <v>183</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" s="20" customFormat="1">
+      <c r="F63" s="78"/>
+    </row>
+    <row r="64" spans="1:6" s="20" customFormat="1">
       <c r="A64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>144</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="20" customFormat="1">
+      <c r="F64" s="78"/>
+    </row>
+    <row r="65" spans="1:6" s="20" customFormat="1">
       <c r="A65" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="38" t="s">
         <v>145</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="20" customFormat="1">
+      <c r="F65" s="78"/>
+    </row>
+    <row r="66" spans="1:6" s="20" customFormat="1">
       <c r="A66" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="39" t="s">
-        <v>186</v>
+      <c r="B66" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="20" customFormat="1">
+      <c r="F66" s="78"/>
+    </row>
+    <row r="67" spans="1:6" s="20" customFormat="1">
       <c r="A67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="39" t="s">
-        <v>187</v>
+      <c r="B67" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="20" customFormat="1">
+      <c r="F67" s="78"/>
+    </row>
+    <row r="68" spans="1:6" s="20" customFormat="1">
       <c r="A68" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>196</v>
+      <c r="B68" s="38" t="s">
+        <v>194</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="20" customFormat="1">
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" s="20" customFormat="1">
       <c r="A69" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="39" t="s">
-        <v>209</v>
+      <c r="B69" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="38" t="s">
+      <c r="F69" s="78"/>
+    </row>
+    <row r="70" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A70" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="38" t="s">
         <v>137</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="19" customFormat="1">
+      <c r="F70" s="78"/>
+    </row>
+    <row r="71" spans="1:6" s="19" customFormat="1">
       <c r="A71" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>133</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="20" customFormat="1">
+      <c r="F71" s="78"/>
+    </row>
+    <row r="72" spans="1:6" s="20" customFormat="1">
       <c r="A72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="20" customFormat="1">
+      <c r="F72" s="78"/>
+    </row>
+    <row r="73" spans="1:6" s="20" customFormat="1">
       <c r="A73" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F73" s="78"/>
+    </row>
+    <row r="74" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A74" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" s="19" customFormat="1">
+      <c r="F74" s="78"/>
+    </row>
+    <row r="75" spans="1:6" s="19" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>146</v>
       </c>
@@ -2683,97 +2790,104 @@
         <v>30</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="20" customFormat="1">
-      <c r="A76" s="38" t="s">
+      <c r="F75" s="78"/>
+    </row>
+    <row r="76" spans="1:6" s="20" customFormat="1">
+      <c r="A76" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F76" s="78"/>
+    </row>
+    <row r="77" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A77" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="19" customFormat="1">
+      <c r="F77" s="78"/>
+    </row>
+    <row r="78" spans="1:6" s="19" customFormat="1">
       <c r="A78" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>137</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D78" s="26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="20" customFormat="1">
+      <c r="F78" s="78"/>
+    </row>
+    <row r="79" spans="1:6" s="20" customFormat="1">
       <c r="A79" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="20" customFormat="1">
+      <c r="F79" s="78"/>
+    </row>
+    <row r="80" spans="1:6" s="20" customFormat="1">
       <c r="A80" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>254</v>
+        <v>172</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>279</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F80" s="78"/>
+    </row>
+    <row r="81" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A81" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" s="73" t="s">
-        <v>253</v>
+        <v>172</v>
+      </c>
+      <c r="B81" s="71" t="s">
+        <v>250</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D81" s="30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="20" customFormat="1">
+      <c r="F81" s="78"/>
+    </row>
+    <row r="82" spans="1:6" s="20" customFormat="1">
       <c r="A82" s="11" t="s">
         <v>32</v>
       </c>
@@ -2786,13 +2900,14 @@
       <c r="D82" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" s="20" customFormat="1">
+      <c r="F82" s="78"/>
+    </row>
+    <row r="83" spans="1:6" s="20" customFormat="1">
       <c r="A83" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>136</v>
@@ -2800,8 +2915,9 @@
       <c r="D83" s="27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="20" customFormat="1">
+      <c r="F83" s="78"/>
+    </row>
+    <row r="84" spans="1:6" s="20" customFormat="1">
       <c r="A84" s="11" t="s">
         <v>32</v>
       </c>
@@ -2814,13 +2930,14 @@
       <c r="D84" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="20" customFormat="1">
+      <c r="F84" s="78"/>
+    </row>
+    <row r="85" spans="1:6" s="20" customFormat="1">
       <c r="A85" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>136</v>
@@ -2828,8 +2945,9 @@
       <c r="D85" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" s="20" customFormat="1">
+      <c r="F85" s="78"/>
+    </row>
+    <row r="86" spans="1:6" s="20" customFormat="1">
       <c r="A86" s="11" t="s">
         <v>32</v>
       </c>
@@ -2842,8 +2960,9 @@
       <c r="D86" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" s="20" customFormat="1">
+      <c r="F86" s="78"/>
+    </row>
+    <row r="87" spans="1:6" s="20" customFormat="1">
       <c r="A87" s="11" t="s">
         <v>32</v>
       </c>
@@ -2856,13 +2975,14 @@
       <c r="D87" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="20" customFormat="1">
+      <c r="F87" s="78"/>
+    </row>
+    <row r="88" spans="1:6" s="20" customFormat="1">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>136</v>
@@ -2870,8 +2990,9 @@
       <c r="D88" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="20" customFormat="1">
+      <c r="F88" s="78"/>
+    </row>
+    <row r="89" spans="1:6" s="20" customFormat="1">
       <c r="A89" s="11" t="s">
         <v>32</v>
       </c>
@@ -2884,8 +3005,9 @@
       <c r="D89" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="20" customFormat="1">
+      <c r="F89" s="78"/>
+    </row>
+    <row r="90" spans="1:6" s="20" customFormat="1">
       <c r="A90" s="11" t="s">
         <v>32</v>
       </c>
@@ -2898,8 +3020,9 @@
       <c r="D90" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="20" customFormat="1">
+      <c r="F90" s="78"/>
+    </row>
+    <row r="91" spans="1:6" s="20" customFormat="1">
       <c r="A91" s="11" t="s">
         <v>32</v>
       </c>
@@ -2912,13 +3035,14 @@
       <c r="D91" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="20" customFormat="1">
+      <c r="F91" s="78"/>
+    </row>
+    <row r="92" spans="1:6" s="20" customFormat="1">
       <c r="A92" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="38" t="s">
-        <v>149</v>
+      <c r="B92" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>136</v>
@@ -2926,12 +3050,13 @@
       <c r="D92" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="20" customFormat="1">
+      <c r="F92" s="78"/>
+    </row>
+    <row r="93" spans="1:6" s="20" customFormat="1">
       <c r="A93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C93" s="20" t="s">
@@ -2940,13 +3065,14 @@
       <c r="D93" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" s="20" customFormat="1">
+      <c r="F93" s="78"/>
+    </row>
+    <row r="94" spans="1:6" s="20" customFormat="1">
       <c r="A94" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="38" t="s">
-        <v>264</v>
+      <c r="B94" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>136</v>
@@ -2954,13 +3080,14 @@
       <c r="D94" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" s="20" customFormat="1">
+      <c r="F94" s="78"/>
+    </row>
+    <row r="95" spans="1:6" s="20" customFormat="1">
       <c r="A95" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="38" t="s">
-        <v>265</v>
+      <c r="B95" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>136</v>
@@ -2968,12 +3095,13 @@
       <c r="D95" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" s="20" customFormat="1">
+      <c r="F95" s="78"/>
+    </row>
+    <row r="96" spans="1:6" s="20" customFormat="1">
       <c r="A96" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C96" s="20" t="s">
@@ -2982,12 +3110,13 @@
       <c r="D96" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F96" s="78"/>
+    </row>
+    <row r="97" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A97" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="20" t="s">
@@ -2996,64 +3125,69 @@
       <c r="D97" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="19" customFormat="1">
+      <c r="F97" s="78"/>
+    </row>
+    <row r="98" spans="1:6" s="19" customFormat="1">
       <c r="A98" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F98" s="78"/>
+    </row>
+    <row r="99" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A99" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="20" customFormat="1">
+      <c r="F99" s="78"/>
+    </row>
+    <row r="100" spans="1:6" s="20" customFormat="1">
       <c r="A100" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" s="20" customFormat="1">
-      <c r="A101" s="38" t="s">
+      <c r="F100" s="78"/>
+    </row>
+    <row r="101" spans="1:6" s="20" customFormat="1">
+      <c r="A101" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F101" s="78"/>
+    </row>
+    <row r="102" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A102" s="8" t="s">
         <v>41</v>
       </c>
@@ -3061,13 +3195,14 @@
         <v>137</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" s="19" customFormat="1">
+      <c r="F102" s="78"/>
+    </row>
+    <row r="103" spans="1:6" s="19" customFormat="1">
       <c r="A103" s="7" t="s">
         <v>139</v>
       </c>
@@ -3075,55 +3210,59 @@
         <v>140</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" s="20" customFormat="1">
+      <c r="F103" s="78"/>
+    </row>
+    <row r="104" spans="1:6" s="20" customFormat="1">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="59" t="s">
-        <v>193</v>
+      <c r="B104" s="58" t="s">
+        <v>191</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" s="20" customFormat="1">
+      <c r="F104" s="78"/>
+    </row>
+    <row r="105" spans="1:6" s="20" customFormat="1">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="59" t="s">
-        <v>195</v>
+      <c r="B105" s="58" t="s">
+        <v>193</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" s="20" customFormat="1">
+      <c r="F105" s="78"/>
+    </row>
+    <row r="106" spans="1:6" s="20" customFormat="1">
       <c r="A106" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F106" s="78"/>
+    </row>
+    <row r="107" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A107" s="9" t="s">
         <v>139</v>
       </c>
@@ -3131,15 +3270,16 @@
         <v>137</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" s="19" customFormat="1">
+      <c r="F107" s="78"/>
+    </row>
+    <row r="108" spans="1:6" s="19" customFormat="1">
       <c r="A108" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>42</v>
@@ -3150,12 +3290,13 @@
       <c r="D108" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="20" customFormat="1">
+      <c r="F108" s="78"/>
+    </row>
+    <row r="109" spans="1:6" s="20" customFormat="1">
       <c r="A109" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B109" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C109" s="20" t="s">
@@ -3164,27 +3305,29 @@
       <c r="D109" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" s="20" customFormat="1">
+      <c r="F109" s="78"/>
+    </row>
+    <row r="110" spans="1:6" s="20" customFormat="1">
       <c r="A110" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B110" s="45" t="s">
-        <v>161</v>
+      <c r="B110" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D110" s="29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" s="20" customFormat="1">
+      <c r="F110" s="78"/>
+    </row>
+    <row r="111" spans="1:6" s="20" customFormat="1">
       <c r="A111" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>256</v>
+        <v>203</v>
+      </c>
+      <c r="B111" s="44" t="s">
+        <v>252</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>97</v>
@@ -3192,13 +3335,14 @@
       <c r="D111" s="29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="20" customFormat="1">
+      <c r="F111" s="78"/>
+    </row>
+    <row r="112" spans="1:6" s="20" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" s="45" t="s">
-        <v>257</v>
+        <v>203</v>
+      </c>
+      <c r="B112" s="44" t="s">
+        <v>253</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>97</v>
@@ -3206,13 +3350,14 @@
       <c r="D112" s="29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" s="20" customFormat="1">
+      <c r="F112" s="78"/>
+    </row>
+    <row r="113" spans="1:6" s="20" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B113" s="45" t="s">
-        <v>258</v>
+        <v>203</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>254</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>97</v>
@@ -3220,13 +3365,14 @@
       <c r="D113" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" s="20" customFormat="1">
+      <c r="F113" s="78"/>
+    </row>
+    <row r="114" spans="1:6" s="20" customFormat="1">
       <c r="A114" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B114" s="45" t="s">
-        <v>261</v>
+        <v>203</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>97</v>
@@ -3234,13 +3380,14 @@
       <c r="D114" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" s="20" customFormat="1">
+      <c r="F114" s="78"/>
+    </row>
+    <row r="115" spans="1:6" s="20" customFormat="1">
       <c r="A115" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B115" s="45" t="s">
-        <v>259</v>
+        <v>203</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>255</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>97</v>
@@ -3248,13 +3395,14 @@
       <c r="D115" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" s="20" customFormat="1">
+      <c r="F115" s="78"/>
+    </row>
+    <row r="116" spans="1:6" s="20" customFormat="1">
       <c r="A116" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B116" s="45" t="s">
-        <v>260</v>
+        <v>203</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>256</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>97</v>
@@ -3262,10 +3410,11 @@
       <c r="D116" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F116" s="78"/>
+    </row>
+    <row r="117" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A117" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>137</v>
@@ -3276,8 +3425,9 @@
       <c r="D117" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" s="19" customFormat="1">
+      <c r="F117" s="78"/>
+    </row>
+    <row r="118" spans="1:6" s="19" customFormat="1">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -3290,12 +3440,13 @@
       <c r="D118" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="20" customFormat="1">
+      <c r="F118" s="78"/>
+    </row>
+    <row r="119" spans="1:6" s="20" customFormat="1">
       <c r="A119" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C119" s="20" t="s">
@@ -3304,12 +3455,13 @@
       <c r="D119" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="20" customFormat="1">
+      <c r="F119" s="78"/>
+    </row>
+    <row r="120" spans="1:6" s="20" customFormat="1">
       <c r="A120" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C120" s="20" t="s">
@@ -3318,13 +3470,14 @@
       <c r="D120" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" s="20" customFormat="1">
+      <c r="F120" s="78"/>
+    </row>
+    <row r="121" spans="1:6" s="20" customFormat="1">
       <c r="A121" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="38" t="s">
-        <v>156</v>
+      <c r="B121" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>98</v>
@@ -3332,13 +3485,14 @@
       <c r="D121" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" s="20" customFormat="1">
+      <c r="F121" s="78"/>
+    </row>
+    <row r="122" spans="1:6" s="20" customFormat="1">
       <c r="A122" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="38" t="s">
-        <v>155</v>
+      <c r="B122" s="37" t="s">
+        <v>154</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>98</v>
@@ -3346,12 +3500,13 @@
       <c r="D122" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" s="20" customFormat="1">
+      <c r="F122" s="78"/>
+    </row>
+    <row r="123" spans="1:6" s="20" customFormat="1">
       <c r="A123" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C123" s="20" t="s">
@@ -3360,12 +3515,13 @@
       <c r="D123" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" s="20" customFormat="1">
+      <c r="F123" s="78"/>
+    </row>
+    <row r="124" spans="1:6" s="20" customFormat="1">
       <c r="A124" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C124" s="20" t="s">
@@ -3374,12 +3530,13 @@
       <c r="D124" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" s="20" customFormat="1">
+      <c r="F124" s="78"/>
+    </row>
+    <row r="125" spans="1:6" s="20" customFormat="1">
       <c r="A125" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C125" s="20" t="s">
@@ -3388,13 +3545,14 @@
       <c r="D125" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" s="20" customFormat="1">
+      <c r="F125" s="78"/>
+    </row>
+    <row r="126" spans="1:6" s="20" customFormat="1">
       <c r="A126" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="38" t="s">
-        <v>154</v>
+      <c r="B126" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>98</v>
@@ -3402,12 +3560,13 @@
       <c r="D126" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" s="20" customFormat="1">
+      <c r="F126" s="78"/>
+    </row>
+    <row r="127" spans="1:6" s="20" customFormat="1">
       <c r="A127" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C127" s="20" t="s">
@@ -3416,12 +3575,13 @@
       <c r="D127" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" s="20" customFormat="1">
+      <c r="F127" s="78"/>
+    </row>
+    <row r="128" spans="1:6" s="20" customFormat="1">
       <c r="A128" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C128" s="20" t="s">
@@ -3430,12 +3590,13 @@
       <c r="D128" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" s="20" customFormat="1">
+      <c r="F128" s="78"/>
+    </row>
+    <row r="129" spans="1:6" s="20" customFormat="1">
       <c r="A129" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C129" s="20" t="s">
@@ -3444,12 +3605,13 @@
       <c r="D129" s="27">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" s="20" customFormat="1">
+      <c r="F129" s="78"/>
+    </row>
+    <row r="130" spans="1:6" s="20" customFormat="1">
       <c r="A130" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C130" s="20" t="s">
@@ -3458,27 +3620,29 @@
       <c r="D130" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" s="20" customFormat="1">
+      <c r="F130" s="78"/>
+    </row>
+    <row r="131" spans="1:6" s="20" customFormat="1">
       <c r="A131" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D131" s="52">
+      <c r="D131" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" s="20" customFormat="1">
+      <c r="F131" s="78"/>
+    </row>
+    <row r="132" spans="1:6" s="20" customFormat="1">
       <c r="A132" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B132" s="38" t="s">
-        <v>153</v>
+      <c r="B132" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>98</v>
@@ -3486,13 +3650,14 @@
       <c r="D132" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" s="20" customFormat="1">
+      <c r="F132" s="78"/>
+    </row>
+    <row r="133" spans="1:6" s="20" customFormat="1">
       <c r="A133" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="38" t="s">
-        <v>152</v>
+      <c r="B133" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>98</v>
@@ -3500,12 +3665,13 @@
       <c r="D133" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" s="20" customFormat="1">
+      <c r="F133" s="78"/>
+    </row>
+    <row r="134" spans="1:6" s="20" customFormat="1">
       <c r="A134" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="20" t="s">
@@ -3514,12 +3680,13 @@
       <c r="D134" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" s="20" customFormat="1">
+      <c r="F134" s="78"/>
+    </row>
+    <row r="135" spans="1:6" s="20" customFormat="1">
       <c r="A135" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C135" s="20" t="s">
@@ -3528,13 +3695,14 @@
       <c r="D135" s="27">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" s="20" customFormat="1">
+      <c r="F135" s="78"/>
+    </row>
+    <row r="136" spans="1:6" s="20" customFormat="1">
       <c r="A136" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="38" t="s">
-        <v>272</v>
+      <c r="B136" s="37" t="s">
+        <v>268</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>98</v>
@@ -3542,12 +3710,13 @@
       <c r="D136" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" s="20" customFormat="1">
+      <c r="F136" s="78"/>
+    </row>
+    <row r="137" spans="1:6" s="20" customFormat="1">
       <c r="A137" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C137" s="20" t="s">
@@ -3556,41 +3725,44 @@
       <c r="D137" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" s="20" customFormat="1">
+      <c r="F137" s="78"/>
+    </row>
+    <row r="138" spans="1:6" s="20" customFormat="1">
       <c r="A138" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="38" t="s">
-        <v>151</v>
+      <c r="B138" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D138" s="77" t="s">
+      <c r="D138" s="75" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" s="20" customFormat="1">
+      <c r="F138" s="78"/>
+    </row>
+    <row r="139" spans="1:6" s="20" customFormat="1">
       <c r="A139" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D139" s="77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="20" customFormat="1">
+      <c r="D139" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F139" s="78"/>
+    </row>
+    <row r="140" spans="1:6" s="20" customFormat="1">
       <c r="A140" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B140" s="38" t="s">
-        <v>150</v>
+      <c r="B140" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>98</v>
@@ -3598,12 +3770,13 @@
       <c r="D140" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" s="20" customFormat="1">
+      <c r="F140" s="78"/>
+    </row>
+    <row r="141" spans="1:6" s="20" customFormat="1">
       <c r="A141" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C141" s="20" t="s">
@@ -3612,12 +3785,13 @@
       <c r="D141" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" s="20" customFormat="1">
-      <c r="A142" s="38" t="s">
+      <c r="F141" s="78"/>
+    </row>
+    <row r="142" spans="1:6" s="20" customFormat="1">
+      <c r="A142" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C142" s="20" t="s">
@@ -3626,8 +3800,9 @@
       <c r="D142" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F142" s="78"/>
+    </row>
+    <row r="143" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A143" s="8" t="s">
         <v>44</v>
       </c>
@@ -3640,110 +3815,118 @@
       <c r="D143" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" s="20" customFormat="1">
-      <c r="A144" s="70" t="s">
+      <c r="F143" s="78"/>
+    </row>
+    <row r="144" spans="1:6" s="20" customFormat="1">
+      <c r="A144" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B144" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>231</v>
+      <c r="B144" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>229</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" s="34" customFormat="1">
-      <c r="A145" s="70" t="s">
+      <c r="F144" s="78"/>
+    </row>
+    <row r="145" spans="1:6" s="33" customFormat="1">
+      <c r="A145" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D145" s="47" t="s">
+      <c r="B145" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" s="46" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" s="34" customFormat="1">
-      <c r="A146" s="70" t="s">
+      <c r="F145" s="78"/>
+    </row>
+    <row r="146" spans="1:6" s="33" customFormat="1">
+      <c r="A146" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B146" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C146" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D146" s="47" t="s">
+      <c r="B146" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D146" s="46" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" s="34" customFormat="1">
-      <c r="A147" s="70" t="s">
+      <c r="F146" s="78"/>
+    </row>
+    <row r="147" spans="1:6" s="33" customFormat="1">
+      <c r="A147" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D147" s="47" t="s">
+      <c r="B147" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D147" s="46" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A148" s="66" t="s">
+      <c r="F147" s="78"/>
+    </row>
+    <row r="148" spans="1:6" s="34" customFormat="1" ht="15" thickBot="1">
+      <c r="A148" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B148" s="67" t="s">
+      <c r="B148" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C148" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D148" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="36" customFormat="1">
-      <c r="A149" s="64" t="s">
+      <c r="C148" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="78"/>
+    </row>
+    <row r="149" spans="1:6" s="35" customFormat="1">
+      <c r="A149" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="B149" s="65" t="s">
+      <c r="B149" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D149" s="37" t="s">
+      <c r="D149" s="36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A150" s="66" t="s">
+      <c r="F149" s="78"/>
+    </row>
+    <row r="150" spans="1:6" s="34" customFormat="1" ht="15" thickBot="1">
+      <c r="A150" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B150" s="67" t="s">
+      <c r="B150" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D150" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="20" customFormat="1">
+      <c r="D150" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F150" s="78"/>
+    </row>
+    <row r="151" spans="1:6" s="20" customFormat="1">
       <c r="A151" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C151" s="20" t="s">
@@ -3752,12 +3935,13 @@
       <c r="D151" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" s="20" customFormat="1">
+      <c r="F151" s="78"/>
+    </row>
+    <row r="152" spans="1:6" s="20" customFormat="1">
       <c r="A152" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C152" s="20" t="s">
@@ -3766,12 +3950,13 @@
       <c r="D152" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" s="20" customFormat="1">
+      <c r="F152" s="78"/>
+    </row>
+    <row r="153" spans="1:6" s="20" customFormat="1">
       <c r="A153" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C153" s="20" t="s">
@@ -3780,13 +3965,14 @@
       <c r="D153" s="27">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" s="20" customFormat="1">
+      <c r="F153" s="78"/>
+    </row>
+    <row r="154" spans="1:6" s="20" customFormat="1">
       <c r="A154" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B154" s="38" t="s">
-        <v>230</v>
+      <c r="B154" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>96</v>
@@ -3794,8 +3980,9 @@
       <c r="D154" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" s="20" customFormat="1">
+      <c r="F154" s="78"/>
+    </row>
+    <row r="155" spans="1:6" s="20" customFormat="1">
       <c r="A155" s="9" t="s">
         <v>62</v>
       </c>
@@ -3808,12 +3995,13 @@
       <c r="D155" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" s="20" customFormat="1">
+      <c r="F155" s="78"/>
+    </row>
+    <row r="156" spans="1:6" s="20" customFormat="1">
       <c r="A156" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C156" s="20" t="s">
@@ -3822,12 +4010,13 @@
       <c r="D156" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" s="20" customFormat="1">
+      <c r="F156" s="78"/>
+    </row>
+    <row r="157" spans="1:6" s="20" customFormat="1">
       <c r="A157" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
         <v>67</v>
       </c>
       <c r="C157" s="20" t="s">
@@ -3836,12 +4025,13 @@
       <c r="D157" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" s="20" customFormat="1">
+      <c r="F157" s="78"/>
+    </row>
+    <row r="158" spans="1:6" s="20" customFormat="1">
       <c r="A158" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C158" s="20" t="s">
@@ -3850,12 +4040,13 @@
       <c r="D158" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" s="20" customFormat="1">
+      <c r="F158" s="78"/>
+    </row>
+    <row r="159" spans="1:6" s="20" customFormat="1">
       <c r="A159" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C159" s="20" t="s">
@@ -3864,12 +4055,13 @@
       <c r="D159" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" s="20" customFormat="1">
+      <c r="F159" s="78"/>
+    </row>
+    <row r="160" spans="1:6" s="20" customFormat="1">
       <c r="A160" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C160" s="20" t="s">
@@ -3878,36 +4070,39 @@
       <c r="D160" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" s="20" customFormat="1">
-      <c r="A161" s="38" t="s">
+      <c r="F160" s="78"/>
+    </row>
+    <row r="161" spans="1:6" s="20" customFormat="1">
+      <c r="A161" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D161" s="47" t="s">
+      <c r="D161" s="46" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" s="20" customFormat="1">
+      <c r="F161" s="78"/>
+    </row>
+    <row r="162" spans="1:6" s="20" customFormat="1">
       <c r="A162" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="47" t="s">
+      <c r="D162" s="46" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F162" s="78"/>
+    </row>
+    <row r="163" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A163" s="3" t="s">
         <v>62</v>
       </c>
@@ -3920,12 +4115,13 @@
       <c r="D163" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" s="20" customFormat="1">
+      <c r="F163" s="78"/>
+    </row>
+    <row r="164" spans="1:6" s="20" customFormat="1">
       <c r="A164" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C164" s="20" t="s">
@@ -3934,12 +4130,13 @@
       <c r="D164" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" s="20" customFormat="1">
+      <c r="F164" s="78"/>
+    </row>
+    <row r="165" spans="1:6" s="20" customFormat="1">
       <c r="A165" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C165" s="20" t="s">
@@ -3948,12 +4145,13 @@
       <c r="D165" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" s="20" customFormat="1">
+      <c r="F165" s="78"/>
+    </row>
+    <row r="166" spans="1:6" s="20" customFormat="1">
       <c r="A166" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C166" s="20" t="s">
@@ -3962,12 +4160,13 @@
       <c r="D166" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" s="20" customFormat="1">
+      <c r="F166" s="78"/>
+    </row>
+    <row r="167" spans="1:6" s="20" customFormat="1">
       <c r="A167" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C167" s="20" t="s">
@@ -3976,12 +4175,13 @@
       <c r="D167" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" s="20" customFormat="1">
+      <c r="F167" s="78"/>
+    </row>
+    <row r="168" spans="1:6" s="20" customFormat="1">
       <c r="A168" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C168" s="20" t="s">
@@ -3990,12 +4190,13 @@
       <c r="D168" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" s="20" customFormat="1">
+      <c r="F168" s="78"/>
+    </row>
+    <row r="169" spans="1:6" s="20" customFormat="1">
       <c r="A169" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C169" s="20" t="s">
@@ -4004,12 +4205,13 @@
       <c r="D169" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" s="20" customFormat="1">
+      <c r="F169" s="78"/>
+    </row>
+    <row r="170" spans="1:6" s="20" customFormat="1">
       <c r="A170" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C170" s="20" t="s">
@@ -4018,12 +4220,13 @@
       <c r="D170" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A171" s="38" t="s">
+      <c r="F170" s="78"/>
+    </row>
+    <row r="171" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A171" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C171" s="20" t="s">
@@ -4032,125 +4235,134 @@
       <c r="D171" s="29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" s="19" customFormat="1">
+      <c r="F171" s="78"/>
+    </row>
+    <row r="172" spans="1:6" s="19" customFormat="1">
       <c r="A172" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D172" s="26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="20" customFormat="1">
+      <c r="F172" s="78"/>
+    </row>
+    <row r="173" spans="1:6" s="20" customFormat="1">
       <c r="A173" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B173" s="38" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>190</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D173" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A174" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="B174" s="67" t="s">
+      <c r="F173" s="78"/>
+    </row>
+    <row r="174" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A174" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="66" t="s">
         <v>137</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D174" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="19" customFormat="1">
-      <c r="A175" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D174" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="78"/>
+    </row>
+    <row r="175" spans="1:6" s="19" customFormat="1">
+      <c r="A175" s="59" t="s">
         <v>80</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" s="20" customFormat="1">
-      <c r="A176" s="61" t="s">
+      <c r="F175" s="78"/>
+    </row>
+    <row r="176" spans="1:6" s="20" customFormat="1">
+      <c r="A176" s="60" t="s">
         <v>80</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F176" s="78"/>
+    </row>
+    <row r="177" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A177" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B177" s="44" t="s">
+      <c r="B177" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D177" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B178" s="45" t="s">
+      <c r="F177" s="78"/>
+    </row>
+    <row r="178" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A178" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B178" s="44" t="s">
         <v>137</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D178" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" s="55" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" s="69" t="s">
+      <c r="F178" s="78"/>
+    </row>
+    <row r="179" spans="1:6" s="54" customFormat="1" ht="15" thickBot="1">
+      <c r="A179" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C179" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D179" s="56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="20" customFormat="1">
-      <c r="A180" s="38" t="s">
+      <c r="C179" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F179" s="78"/>
+    </row>
+    <row r="180" spans="1:6" s="20" customFormat="1">
+      <c r="A180" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B180" s="45" t="s">
-        <v>162</v>
+      <c r="B180" s="44" t="s">
+        <v>161</v>
       </c>
       <c r="C180" s="20" t="s">
         <v>100</v>
@@ -4158,12 +4370,13 @@
       <c r="D180" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="20" customFormat="1">
+      <c r="F180" s="78"/>
+    </row>
+    <row r="181" spans="1:6" s="20" customFormat="1">
       <c r="A181" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B181" s="45" t="s">
+      <c r="B181" s="44" t="s">
         <v>82</v>
       </c>
       <c r="C181" s="20" t="s">
@@ -4172,12 +4385,13 @@
       <c r="D181" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" s="20" customFormat="1">
+      <c r="F181" s="78"/>
+    </row>
+    <row r="182" spans="1:6" s="20" customFormat="1">
       <c r="A182" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C182" s="20" t="s">
@@ -4186,12 +4400,13 @@
       <c r="D182" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="20" customFormat="1">
+      <c r="F182" s="78"/>
+    </row>
+    <row r="183" spans="1:6" s="20" customFormat="1">
       <c r="A183" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>84</v>
       </c>
       <c r="C183" s="20" t="s">
@@ -4200,12 +4415,13 @@
       <c r="D183" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" s="20" customFormat="1">
+      <c r="F183" s="78"/>
+    </row>
+    <row r="184" spans="1:6" s="20" customFormat="1">
       <c r="A184" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C184" s="20" t="s">
@@ -4214,12 +4430,13 @@
       <c r="D184" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" s="20" customFormat="1">
-      <c r="A185" s="46" t="s">
+      <c r="F184" s="78"/>
+    </row>
+    <row r="185" spans="1:6" s="20" customFormat="1">
+      <c r="A185" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>86</v>
       </c>
       <c r="C185" s="20" t="s">
@@ -4228,12 +4445,13 @@
       <c r="D185" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F185" s="78"/>
+    </row>
+    <row r="186" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A186" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C186" s="20" t="s">
@@ -4242,8 +4460,9 @@
       <c r="D186" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" s="19" customFormat="1">
+      <c r="F186" s="78"/>
+    </row>
+    <row r="187" spans="1:6" s="19" customFormat="1">
       <c r="A187" s="7" t="s">
         <v>90</v>
       </c>
@@ -4256,8 +4475,9 @@
       <c r="D187" s="26" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F187" s="78"/>
+    </row>
+    <row r="188" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
       <c r="A188" s="8" t="s">
         <v>90</v>
       </c>
@@ -4270,8 +4490,9 @@
       <c r="D188" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" s="19" customFormat="1">
+      <c r="F188" s="78"/>
+    </row>
+    <row r="189" spans="1:6" s="19" customFormat="1">
       <c r="A189" s="2" t="s">
         <v>87</v>
       </c>
@@ -4284,429 +4505,560 @@
       <c r="D189" s="26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" s="34" customFormat="1">
-      <c r="A190" s="40" t="s">
+      <c r="F189" s="78"/>
+    </row>
+    <row r="190" spans="1:6" s="20" customFormat="1">
+      <c r="A190" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B190" s="41" t="s">
+      <c r="B190" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F190" s="78"/>
+    </row>
+    <row r="191" spans="1:6" s="33" customFormat="1">
+      <c r="A191" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B191" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="C191" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D190" s="47" t="s">
+      <c r="D191" s="46" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A191" s="48" t="s">
+      <c r="F191" s="78"/>
+    </row>
+    <row r="192" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="A192" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B192" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C192" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D191" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="34" customFormat="1">
-      <c r="A192" s="70" t="s">
+      <c r="D192" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F192" s="78"/>
+    </row>
+    <row r="193" spans="1:6" s="33" customFormat="1">
+      <c r="A193" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="B192" s="70" t="s">
+      <c r="B193" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C192" s="34" t="s">
+      <c r="C193" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D192" s="47" t="s">
+      <c r="D193" s="46" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" s="34" customFormat="1">
-      <c r="A193" s="70" t="s">
+      <c r="F193" s="78"/>
+    </row>
+    <row r="194" spans="1:6" s="33" customFormat="1">
+      <c r="A194" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="B193" s="70" t="s">
+      <c r="B194" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C193" s="34" t="s">
+      <c r="C194" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D193" s="47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="38" t="s">
+      <c r="D194" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F194" s="78"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C194" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D194" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1">
-      <c r="C195" s="20"/>
-    </row>
-    <row r="196" spans="1:5" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A196" s="71" t="s">
+      <c r="C195" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D195" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F195" s="78"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="C196" s="20"/>
+    </row>
+    <row r="197" spans="1:6" s="20" customFormat="1">
+      <c r="A197" s="77" t="s">
         <v>120</v>
-      </c>
-      <c r="B196" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D196" s="37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A197" s="71" t="s">
-        <v>189</v>
       </c>
       <c r="B197" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D197" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A198" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="B198" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D198" s="33" t="s">
+      <c r="D197" s="46" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A199" s="71" t="s">
-        <v>199</v>
+      <c r="F197" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="20" customFormat="1">
+      <c r="A198" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D198" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F198" s="78"/>
+    </row>
+    <row r="199" spans="1:6" s="20" customFormat="1">
+      <c r="A199" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="B199" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D199" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A200" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D200" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A201" s="71" t="s">
-        <v>201</v>
+      <c r="D199" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F199" s="78"/>
+    </row>
+    <row r="200" spans="1:6" s="20" customFormat="1">
+      <c r="A200" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B200" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F200" s="78"/>
+    </row>
+    <row r="201" spans="1:6" s="20" customFormat="1">
+      <c r="A201" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="B201" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C201" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D201" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B202" s="38" t="s">
-        <v>137</v>
+      <c r="C201" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F201" s="78"/>
+    </row>
+    <row r="202" spans="1:6" s="20" customFormat="1">
+      <c r="A202" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B202" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D202" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B203" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F202" s="78"/>
+    </row>
+    <row r="203" spans="1:6" s="20" customFormat="1">
+      <c r="A203" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B203" s="69" t="s">
         <v>137</v>
       </c>
       <c r="C203" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D203" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B204" s="38" t="s">
+      <c r="D203" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F203" s="78"/>
+    </row>
+    <row r="204" spans="1:6" s="20" customFormat="1">
+      <c r="A204" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B204" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D204" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F204" s="78"/>
+    </row>
+    <row r="205" spans="1:6" s="20" customFormat="1">
+      <c r="A205" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B205" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C204" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D204" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A205" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B205" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D205" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="38" t="s">
+      <c r="C205" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F205" s="78"/>
+    </row>
+    <row r="206" spans="1:6" s="20" customFormat="1">
+      <c r="A206" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B206" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F206" s="78"/>
+    </row>
+    <row r="207" spans="1:6" s="20" customFormat="1">
+      <c r="A207" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B207" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F207" s="78"/>
+    </row>
+    <row r="208" spans="1:6" s="20" customFormat="1">
+      <c r="A208" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E208" s="76"/>
+      <c r="F208" s="78"/>
+    </row>
+    <row r="209" spans="1:6" s="20" customFormat="1">
+      <c r="A209" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E209" s="76"/>
+      <c r="F209" s="78"/>
+    </row>
+    <row r="210" spans="1:6" s="20" customFormat="1">
+      <c r="A210" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E210" s="76"/>
+      <c r="F210" s="78"/>
+    </row>
+    <row r="211" spans="1:6" s="20" customFormat="1">
+      <c r="A211" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B211" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E211" s="76"/>
+      <c r="F211" s="78"/>
+    </row>
+    <row r="212" spans="1:6" s="20" customFormat="1">
+      <c r="A212" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D212" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E212" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F212" s="78"/>
+    </row>
+    <row r="213" spans="1:6" s="20" customFormat="1">
+      <c r="A213" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B213" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E213" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F213" s="78"/>
+    </row>
+    <row r="214" spans="1:6" s="20" customFormat="1">
+      <c r="A214" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E214" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F214" s="78"/>
+    </row>
+    <row r="215" spans="1:6" s="20" customFormat="1">
+      <c r="A215" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B215" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="C206" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D206" s="37" t="s">
+      <c r="C215" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D215" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E206" s="22" t="s">
+      <c r="E215" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F215" s="78"/>
+    </row>
+    <row r="216" spans="1:6" s="20" customFormat="1">
+      <c r="A216" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B216" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E216" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A207" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B207" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D207" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E207" s="22" t="s">
+      <c r="F216" s="78"/>
+    </row>
+    <row r="217" spans="1:6" s="20" customFormat="1">
+      <c r="A217" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E217" s="20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A208" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="B208" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D208" s="26" t="s">
+      <c r="F217" s="78"/>
+    </row>
+    <row r="218" spans="1:6" s="20" customFormat="1">
+      <c r="A218" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E218" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F218" s="78"/>
+    </row>
+    <row r="219" spans="1:6" s="20" customFormat="1">
+      <c r="A219" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B219" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F219" s="78"/>
+    </row>
+    <row r="220" spans="1:6" s="20" customFormat="1">
+      <c r="A220" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B220" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D220" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E220" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F220" s="78"/>
+    </row>
+    <row r="221" spans="1:6" s="20" customFormat="1">
+      <c r="A221" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B221" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D221" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F221" s="78"/>
+    </row>
+    <row r="222" spans="1:6" s="20" customFormat="1">
+      <c r="A222" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B222" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E222" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F222" s="78"/>
+    </row>
+    <row r="223" spans="1:6" s="20" customFormat="1">
+      <c r="A223" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D223" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E223" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B209" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D209" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E209" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="B210" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D210" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E210" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B211" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D211" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E211" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B212" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C212" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D212" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E212" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A213" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="B213" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D213" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E213" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A214" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="B214" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D214" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E214" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B215" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="C215" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D215" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E215" s="22"/>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A216" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="B216" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D216" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E216" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B217" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D217" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E217" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="22.5">
-      <c r="A218" s="76"/>
-    </row>
-    <row r="219" spans="1:5" ht="22.5">
-      <c r="A219" s="75"/>
+      <c r="F223" s="78"/>
+    </row>
+    <row r="224" spans="1:6" s="20" customFormat="1" ht="22.8">
+      <c r="A224" s="74"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="76"/>
+    </row>
+    <row r="225" spans="1:5" s="20" customFormat="1" ht="22.8">
+      <c r="A225" s="73"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="76"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F197:F223"/>
+    <mergeCell ref="F2:F195"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
